--- a/Design Dazzlers.xlsx
+++ b/Design Dazzlers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S225175614\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36AC7902-2834-449B-9E53-BBBE4626A286}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FF44A7-3680-4815-AE1D-3DB8461B9EF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1DFEC732-47D1-474F-B196-5917743078B9}"/>
   </bookViews>
@@ -25,44 +25,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Arnold Keegan</t>
-  </si>
-  <si>
-    <t>Nongogo Phiwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Names </t>
-  </si>
-  <si>
-    <t>Sambo Kateko</t>
-  </si>
-  <si>
-    <t>Bakker Jake</t>
-  </si>
-  <si>
-    <t>Johannes</t>
-  </si>
-  <si>
-    <t>Dalitso</t>
-  </si>
-  <si>
-    <t>Aviwe</t>
-  </si>
-  <si>
-    <t>Ayabonga</t>
-  </si>
-  <si>
-    <t>Total</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>evalution 1:</t>
+  </si>
+  <si>
+    <t>evalution 2:</t>
+  </si>
+  <si>
+    <t>evalution 4:</t>
+  </si>
+  <si>
+    <t>evalution 5:</t>
+  </si>
+  <si>
+    <t>evalution 3:</t>
+  </si>
+  <si>
+    <t>total :</t>
+  </si>
+  <si>
+    <t>Arnold Keegan (s224335812)</t>
+  </si>
+  <si>
+    <t>Nongogo Phiwe (s224124765)</t>
+  </si>
+  <si>
+    <t>Sambo Kateko (s224242121)</t>
+  </si>
+  <si>
+    <t>Bakker Jake (s227073568)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -90,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,6 +119,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C2120406-89E5-410D-A03A-96273671440A}" name="Table2" displayName="Table2" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7" xr:uid="{9CECF41A-0BA7-4A1B-995A-B62612D2C03C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A2E0CD55-4717-4CDB-8E35-DB5722805045}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{CD9C1FA2-4BE7-4D86-A16D-214E3CE41A07}" name="Arnold Keegan (s224335812)"/>
+    <tableColumn id="3" xr3:uid="{2D870A93-8780-4920-8D80-58B581A427F8}" name="Nongogo Phiwe (s224124765)"/>
+    <tableColumn id="4" xr3:uid="{026F46E7-F9AA-4241-BF96-A3F8F8AB015F}" name="Sambo Kateko (s224242121)"/>
+    <tableColumn id="5" xr3:uid="{3EC92BAE-5C0C-4D6B-A66F-B31FA37C3634}" name="Bakker Jake (s227073568)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,61 +432,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D0C268-8AFA-4B5B-8839-37F85497F26B}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B7" s="1">
+        <f>SUM(B2:B6)</f>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <f>SUM(C2:C6)</f>
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:E7" si="0">SUM(D2:D6)</f>
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>